--- a/src/resources/ulkeler (1).xlsx
+++ b/src/resources/ulkeler (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6EEE24-A2B8-48ED-9E66-40F412845DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE47D955-64D1-4E18-8B6B-EF8599A0664D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="604">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1828,12 +1828,19 @@
   </si>
   <si>
     <t>dfsg</t>
+  </si>
+  <si>
+    <t>NUFUS</t>
+  </si>
+  <si>
+    <t>1000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1884,7 +1891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1944,11 +1951,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1972,6 +1990,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2254,18 +2275,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,8 +2299,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2293,7 +2317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2306,8 +2330,11 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2321,7 +2348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2335,7 +2362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2349,7 +2376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2363,7 +2390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2377,7 +2404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2391,7 +2418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2405,7 +2432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2419,7 +2446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2433,7 +2460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2447,7 +2474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2461,7 +2488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2475,7 +2502,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4949,7 +4976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
